--- a/1Week/HW/merge vs insert Comparison.xlsx
+++ b/1Week/HW/merge vs insert Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-40" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-40" windowWidth="24880" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mergeTimed.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Input Size</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>insertSort</t>
+  </si>
+  <si>
+    <t>stoogeSort</t>
   </si>
 </sst>
 </file>
@@ -79,8 +82,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -108,7 +115,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -119,6 +126,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -129,6 +138,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -176,8 +187,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -204,16 +215,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.236941577064137"/>
+                  <c:y val="-0.0197403774401192"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>mergeTimed.csv!$A$3:$A$15</c:f>
+              <c:f>mergeTimed.csv!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
@@ -250,18 +266,15 @@
                 <c:pt idx="11">
                   <c:v>30000.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>50000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>mergeTimed.csv!$B$3:$B$15</c:f>
+              <c:f>mergeTimed.csv!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.0115778446198</c:v>
                 </c:pt>
@@ -298,13 +311,10 @@
                 <c:pt idx="11">
                   <c:v>1.08446621895</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.66853809357</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -330,11 +340,16 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.223107196464326"/>
+                  <c:y val="0.183147439469628"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>mergeTimed.csv!$A$3:$A$15</c:f>
               <c:numCache>
@@ -381,8 +396,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>mergeTimed.csv!$D$3:$D$14</c:f>
               <c:numCache>
@@ -426,8 +441,127 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>stooge</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.132405863126366"/>
+                  <c:y val="0.108151720721289"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mergeTimed.csv!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mergeTimed.csv!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000242948532104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00208687782288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0189161300659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0614869594574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.176692962646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53449487686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.1152458191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.6247611046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.7106249332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1140.00299001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3530.88020396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -437,15 +571,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2108094840"/>
-        <c:axId val="2120187480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2108094840"/>
+        <c:axId val="-2106723976"/>
+        <c:axId val="-2120413096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2106723976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -472,18 +605,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120187480"/>
+        <c:crossAx val="-2120413096"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2120187480"/>
+        <c:axId val="-2120413096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="45.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -512,9 +642,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108094840"/>
+        <c:crossAx val="-2106723976"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -710,11 +840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128976440"/>
-        <c:axId val="2128164296"/>
+        <c:axId val="-2120348040"/>
+        <c:axId val="-2120342824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128976440"/>
+        <c:axId val="-2120348040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128164296"/>
+        <c:crossAx val="-2120342824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128164296"/>
+        <c:axId val="-2120342824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128976440"/>
+        <c:crossAx val="-2120348040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,11 +1109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128073288"/>
-        <c:axId val="2127634744"/>
+        <c:axId val="-2120079592"/>
+        <c:axId val="-2120084824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128073288"/>
+        <c:axId val="-2120079592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127634744"/>
+        <c:crossAx val="-2120084824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127634744"/>
+        <c:axId val="-2120084824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128073288"/>
+        <c:crossAx val="-2120079592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,20 +1209,273 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>stooge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>mergeTimed.csv!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mergeTimed.csv!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000242948532104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00208687782288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0189161300659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0614869594574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.176692962646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53449487686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.1152458191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.6247611046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.7106249332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1140.00299001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3530.88020396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2120625432"/>
+        <c:axId val="-2120626424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2120625432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Quantity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120626424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2120626424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120625432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent3"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547206</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>636106</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>610705</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>45279</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>699605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1166,6 +1549,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1496,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1509,7 +1922,7 @@
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1518,8 +1931,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1532,8 +1949,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -1546,8 +1969,14 @@
       <c r="D3">
         <v>7.0154905319200003E-2</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2.4294853210399999E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1560,8 +1989,14 @@
       <c r="D4">
         <v>0.61517810821499996</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>2.0868778228799998E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -1574,8 +2009,14 @@
       <c r="D5">
         <v>1.45300292969</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>1.89161300659E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -1588,8 +2029,14 @@
       <c r="D6">
         <v>3.9551508426700002</v>
       </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>6.1486959457400001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -1602,8 +2049,14 @@
       <c r="D7">
         <v>8.6444320678699995</v>
       </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0.17669296264600001</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -1616,8 +2069,14 @@
       <c r="D8">
         <v>16.4276919365</v>
       </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>1.53449487686</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -1630,8 +2089,14 @@
       <c r="D9">
         <v>29.0375990868</v>
       </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>14.1152458191</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -1644,8 +2109,14 @@
       <c r="D10">
         <v>48.495011091199999</v>
       </c>
+      <c r="E10">
+        <v>750</v>
+      </c>
+      <c r="F10">
+        <v>41.624761104599997</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -1658,8 +2129,14 @@
       <c r="D11">
         <v>75.221729993799997</v>
       </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>41.710624933200002</v>
+      </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -1672,8 +2149,14 @@
       <c r="D12">
         <v>112.18672394799999</v>
       </c>
+      <c r="E12">
+        <v>2500</v>
+      </c>
+      <c r="F12">
+        <v>1140.0029900100001</v>
+      </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>20000</v>
       </c>
@@ -1686,8 +2169,14 @@
       <c r="D13">
         <v>208.30089402199999</v>
       </c>
+      <c r="E13">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <v>3530.88020396</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30000</v>
       </c>
@@ -1701,7 +2190,7 @@
         <v>413.104399204</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>50000</v>
       </c>
@@ -1713,9 +2202,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
